--- a/biology/Biochimie/Stérubine/Stérubine.xlsx
+++ b/biology/Biochimie/Stérubine/Stérubine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>St%C3%A9rubine</t>
+          <t>Stérubine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La stérubine (S-7-méthoxy-3`,4`,5-trihydroxyflavanone) est une flavanone (C16H14O6) qui a la capacité de masquer l'amertume de composé amer.
-Cette flavanone a été identifiée dans un extrait des feuilles de l'Herba Santa (Eriodictyon californicum)[2], une plante poussant dans le nord du Mexique et dans l'État de Californie[3].
-Dans cette même plante, trois autres flavonoïdes ont été identifiés avec la même capacité à modifier le goût : l'ériodictyol, l'homoériodictyol et son sel de sodium (homoériodictyol sodique)[2].
-La flavanone est extraite par un solvant non miscible avec l'eau, ensuite les corps gras sont éliminés. L'extrait est éventuellement préépuré sur charbon actif, puis traité avec une solution à base de sodium ionique. Pour finir, le sel de sodium d'homoériodictyol est précipité et purifié par reprécipitation ou cristallisation à température inférieure à 40 °C[4].
+Cette flavanone a été identifiée dans un extrait des feuilles de l'Herba Santa (Eriodictyon californicum), une plante poussant dans le nord du Mexique et dans l'État de Californie.
+Dans cette même plante, trois autres flavonoïdes ont été identifiés avec la même capacité à modifier le goût : l'ériodictyol, l'homoériodictyol et son sel de sodium (homoériodictyol sodique).
+La flavanone est extraite par un solvant non miscible avec l'eau, ensuite les corps gras sont éliminés. L'extrait est éventuellement préépuré sur charbon actif, puis traité avec une solution à base de sodium ionique. Pour finir, le sel de sodium d'homoériodictyol est précipité et purifié par reprécipitation ou cristallisation à température inférieure à 40 °C.
 </t>
         </is>
       </c>
